--- a/Doc/Logboeken/Yousfi_Log.xlsx
+++ b/Doc/Logboeken/Yousfi_Log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>10 February</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>typfouten uit database weggewerkt</t>
+  </si>
+  <si>
+    <t>27 February</t>
+  </si>
+  <si>
+    <t>Geolocation controllers / ajax / dashboard</t>
+  </si>
+  <si>
+    <t>28 February</t>
+  </si>
+  <si>
+    <t>6 uur</t>
+  </si>
+  <si>
+    <t>^^^ + maps implementeren in geolocation insert-form</t>
+  </si>
+  <si>
+    <t>^^^ + maps implementeren in geolocation update-form</t>
+  </si>
+  <si>
+    <t>1 March</t>
+  </si>
+  <si>
+    <t>2 March</t>
+  </si>
+  <si>
+    <t>Families INSERT/UPDATE gemaakt</t>
   </si>
 </sst>
 </file>
@@ -126,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -450,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,6 +599,50 @@
       </c>
       <c r="C10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Logboeken/Yousfi_Log.xlsx
+++ b/Doc/Logboeken/Yousfi_Log.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="360" yWindow="315" windowWidth="15480" windowHeight="10605"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="Logboek" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logboek!$B$2:$C$81</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -19,129 +18,202 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>activiteit</t>
+  </si>
+  <si>
+    <t>onderwerp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aantal uren </t>
+  </si>
   <si>
     <t>10 February</t>
   </si>
   <si>
+    <t>Database design</t>
+  </si>
+  <si>
     <t>4 uur</t>
   </si>
   <si>
+    <t>Projectwerk</t>
+  </si>
+  <si>
     <t>11 February</t>
   </si>
   <si>
+    <t>13 February</t>
+  </si>
+  <si>
+    <t>14 February</t>
+  </si>
+  <si>
+    <t>15 February</t>
+  </si>
+  <si>
+    <t>17 February</t>
+  </si>
+  <si>
+    <t>19 February</t>
+  </si>
+  <si>
+    <t>21 February</t>
+  </si>
+  <si>
+    <t>23 February</t>
+  </si>
+  <si>
+    <t>24 February</t>
+  </si>
+  <si>
+    <t>27 February</t>
+  </si>
+  <si>
+    <t>28 February</t>
+  </si>
+  <si>
+    <t>1 March</t>
+  </si>
+  <si>
+    <t>2 March</t>
+  </si>
+  <si>
+    <t>database design bespreken</t>
+  </si>
+  <si>
+    <t>typfouten uit database weggewerkt</t>
+  </si>
+  <si>
+    <t>simpel admin jsp</t>
+  </si>
+  <si>
+    <t>maps implementatie</t>
+  </si>
+  <si>
+    <t>DAL methodes (DaDownload / DaGeolocation / DaSubfamily)</t>
+  </si>
+  <si>
+    <t>css wijzigingen</t>
+  </si>
+  <si>
+    <t>DaDownloadTest 100%</t>
+  </si>
+  <si>
+    <t>DaGeolocationTest 80% + aanpasbare area in google maps</t>
+  </si>
+  <si>
+    <t>DaGeolocationTest afgewerkt + geolocation toegevoegd aan google maps</t>
+  </si>
+  <si>
+    <t>Geolocation controllers / ajax / dashboard</t>
+  </si>
+  <si>
+    <t>^^^ + maps implementeren in geolocation insert-form</t>
+  </si>
+  <si>
+    <t>^^^ + maps implementeren in geolocation update-form</t>
+  </si>
+  <si>
+    <t>Families INSERT/UPDATE gemaakt</t>
+  </si>
+  <si>
     <t>1 uur</t>
   </si>
   <si>
-    <t>17 February</t>
+    <t>0,5 uur</t>
+  </si>
+  <si>
+    <t>7 uur</t>
   </si>
   <si>
     <t>5 uur</t>
   </si>
   <si>
-    <t>24 February</t>
-  </si>
-  <si>
-    <t>0,5 uur</t>
-  </si>
-  <si>
-    <t>23 February</t>
-  </si>
-  <si>
-    <t>DaGeolocationTest afgewerkt + geolocation toegevoegd aan google maps</t>
-  </si>
-  <si>
-    <t>DaGeolocationTest 80% + aanpasbare area in google maps</t>
-  </si>
-  <si>
-    <t>21 February</t>
-  </si>
-  <si>
-    <t>DaDownloadTest 100%</t>
-  </si>
-  <si>
-    <t>DAL methodes (DaDownload / DaGeolocation / DaSubfamily)</t>
-  </si>
-  <si>
-    <t>14 February</t>
-  </si>
-  <si>
-    <t>7 uur</t>
-  </si>
-  <si>
-    <t>maps implementatie</t>
-  </si>
-  <si>
-    <t>15 February</t>
-  </si>
-  <si>
-    <t>19 February</t>
-  </si>
-  <si>
-    <t>css wijzigingen</t>
-  </si>
-  <si>
-    <t>database design bespreken</t>
-  </si>
-  <si>
-    <t>simpel admin jsp</t>
-  </si>
-  <si>
-    <t>13 February</t>
-  </si>
-  <si>
-    <t>typfouten uit database weggewerkt</t>
-  </si>
-  <si>
-    <t>27 February</t>
-  </si>
-  <si>
-    <t>Geolocation controllers / ajax / dashboard</t>
-  </si>
-  <si>
-    <t>28 February</t>
-  </si>
-  <si>
     <t>6 uur</t>
-  </si>
-  <si>
-    <t>^^^ + maps implementeren in geolocation insert-form</t>
-  </si>
-  <si>
-    <t>^^^ + maps implementeren in geolocation update-form</t>
-  </si>
-  <si>
-    <t>1 March</t>
-  </si>
-  <si>
-    <t>2 March</t>
-  </si>
-  <si>
-    <t>Families INSERT/UPDATE gemaakt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="10">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,13 +221,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -191,6 +346,321 @@
     </tableStyle>
   </tableStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2466975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1657350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1047" name="Text Box 23"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3171825" y="47625"/>
+          <a:ext cx="6105525" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1400" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Logboek 2014 - 2015</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1400" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Cursist: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1400" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>[Oualid Yousfi]</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Studiegebied</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HBO (Handelswetenschappen  en bedrijfskunde) - Graduaat Informatica</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Module: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Projectwerk</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>CursusID:  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Docent(en): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Tom Verbesselt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Vestiging: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Verdana"/>
+              <a:cs typeface="Verdana"/>
+            </a:rPr>
+            <a:t>Hoboken</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE" sz="1000" b="1" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>819150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1102" name="Picture 62" descr="Beschrijving: Beschrijving: Beschrijving: Beschrijving: Beschrijving: Beschrijving: cid:image001.jpg@01CD217A.D45D6670"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="85725" y="95250"/>
+          <a:ext cx="2895600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,198 +948,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="137.25" customHeight="1">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="15">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="15" customFormat="1">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="15" customFormat="1">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="15" customFormat="1">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="21" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="21" customFormat="1">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="16" customFormat="1">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="22" customFormat="1">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
+      <c r="D16" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="4"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="4"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="4"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="4"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="4"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="4"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="4"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="4"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="4"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="4"/>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="4"/>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="4"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="4"/>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="4"/>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="4"/>
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="4"/>
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="4"/>
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="4"/>
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="4"/>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="4"/>
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="4"/>
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="4"/>
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="4"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="4"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="4"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="4"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="4"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="4"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="4"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="4"/>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="4"/>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="4"/>
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="4"/>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="4"/>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="4"/>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="4"/>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="4"/>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="4"/>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="4"/>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="4"/>
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="4"/>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="4"/>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="4"/>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="4"/>
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="4"/>
+      <c r="C127" s="7"/>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="4"/>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="4"/>
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="4"/>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="4"/>
+      <c r="C131" s="7"/>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="4"/>
+      <c r="C132" s="7"/>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="4"/>
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="4"/>
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="4"/>
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="4"/>
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="4"/>
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="4"/>
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="4"/>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="4"/>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="4"/>
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="4"/>
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="4"/>
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="4"/>
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="4"/>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="4"/>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="4"/>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="4"/>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="4"/>
+      <c r="C149" s="7"/>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="4"/>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="4"/>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="4"/>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="4"/>
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="4"/>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="4"/>
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="4"/>
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="4"/>
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="4"/>
+      <c r="C158" s="7"/>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="4"/>
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="4"/>
+      <c r="C160" s="7"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="4"/>
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="4"/>
+      <c r="C162" s="7"/>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="4"/>
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="4"/>
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="4"/>
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="4"/>
+      <c r="C166" s="7"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="4"/>
+      <c r="C167" s="7"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="4"/>
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="4"/>
+      <c r="C169" s="7"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="4"/>
+      <c r="C170" s="7"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="4"/>
+      <c r="C171" s="7"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="4"/>
+      <c r="C172" s="7"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="4"/>
+      <c r="C173" s="7"/>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="4"/>
+      <c r="C174" s="7"/>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="4"/>
+      <c r="C175" s="7"/>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="4"/>
+      <c r="C176" s="7"/>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="4"/>
+      <c r="C177" s="7"/>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="4"/>
+      <c r="C178" s="7"/>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="4"/>
+      <c r="C179" s="7"/>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="4"/>
+      <c r="C180" s="7"/>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" s="4"/>
+      <c r="C181" s="7"/>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="4"/>
+      <c r="C182" s="7"/>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="4"/>
+      <c r="C183" s="7"/>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="4"/>
+      <c r="C184" s="7"/>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="4"/>
+      <c r="C185" s="7"/>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="4"/>
+      <c r="C186" s="7"/>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" s="4"/>
+      <c r="C187" s="7"/>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="B188" s="4"/>
+      <c r="C188" s="7"/>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="B189" s="4"/>
+      <c r="C189" s="7"/>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190" s="4"/>
+      <c r="C190" s="7"/>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191" s="4"/>
+      <c r="C191" s="7"/>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="4"/>
+      <c r="C192" s="7"/>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="4"/>
+      <c r="C193" s="7"/>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="4"/>
+      <c r="C194" s="7"/>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="4"/>
+      <c r="C195" s="7"/>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" s="4"/>
+      <c r="C196" s="7"/>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" s="4"/>
+      <c r="C197" s="7"/>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" s="4"/>
+      <c r="C198" s="7"/>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" s="4"/>
+      <c r="C199" s="7"/>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="4"/>
+      <c r="C200" s="7"/>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" s="4"/>
+      <c r="C201" s="7"/>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" s="4"/>
+      <c r="C202" s="7"/>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="4"/>
+      <c r="C203" s="7"/>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="4"/>
+      <c r="C204" s="7"/>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" s="4"/>
+      <c r="C205" s="7"/>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" s="4"/>
+      <c r="C206" s="7"/>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" s="4"/>
+      <c r="C207" s="7"/>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" s="4"/>
+      <c r="C208" s="7"/>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="4"/>
+      <c r="C209" s="7"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="4"/>
+      <c r="C210" s="7"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="4"/>
+      <c r="C211" s="7"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="4"/>
+      <c r="C212" s="7"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="4"/>
+      <c r="C213" s="7"/>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="4"/>
+      <c r="C214" s="7"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="4"/>
+      <c r="C215" s="7"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="4"/>
+      <c r="C216" s="7"/>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="4"/>
+      <c r="C217" s="7"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="4"/>
+      <c r="C218" s="7"/>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="4"/>
+      <c r="C219" s="7"/>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="4"/>
+      <c r="C220" s="7"/>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="4"/>
+      <c r="C221" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="B2:C81"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="1.3779527559055118" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/Logboeken/Yousfi_Log.xlsx
+++ b/Doc/Logboeken/Yousfi_Log.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>datum</t>
   </si>
@@ -135,6 +135,114 @@
   </si>
   <si>
     <t>6 uur</t>
+  </si>
+  <si>
+    <t>3 March</t>
+  </si>
+  <si>
+    <t>4 March</t>
+  </si>
+  <si>
+    <t>3 uur</t>
+  </si>
+  <si>
+    <t>5 March</t>
+  </si>
+  <si>
+    <t>6 March</t>
+  </si>
+  <si>
+    <t>7 March</t>
+  </si>
+  <si>
+    <t>8 March</t>
+  </si>
+  <si>
+    <t>Map wijziging (-&gt; gelimiteerd tot 1 globale variabele)</t>
+  </si>
+  <si>
+    <t>Dropdown Geolocation gefixt</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Database wijzigingen (foreign keys)</t>
+  </si>
+  <si>
+    <t>Extra maps functie toegevoegd (getCoordinates())</t>
+  </si>
+  <si>
+    <t>Debugging/refactoring</t>
+  </si>
+  <si>
+    <t>9 March</t>
+  </si>
+  <si>
+    <t>Tekst meldingen bij text areas weg</t>
+  </si>
+  <si>
+    <t>14 March</t>
+  </si>
+  <si>
+    <t>Oman logo verfijnd</t>
+  </si>
+  <si>
+    <t>21 March</t>
+  </si>
+  <si>
+    <t>Map required gemaakt</t>
+  </si>
+  <si>
+    <t>23 March</t>
+  </si>
+  <si>
+    <t>Kleine servgeolocation wijziging</t>
+  </si>
+  <si>
+    <t>Validatie/opmaak/efficientie</t>
+  </si>
+  <si>
+    <t>25 March</t>
+  </si>
+  <si>
+    <t>26 March</t>
+  </si>
+  <si>
+    <t>Regex validatie op service-side</t>
+  </si>
+  <si>
+    <t>27 March</t>
+  </si>
+  <si>
+    <t>Validatie verfijning</t>
+  </si>
+  <si>
+    <t>2 May</t>
+  </si>
+  <si>
+    <t>Oplossing (algemeen dossier)</t>
+  </si>
+  <si>
+    <t>18 May</t>
+  </si>
+  <si>
+    <t>Sprint verslag</t>
+  </si>
+  <si>
+    <t>24 May</t>
+  </si>
+  <si>
+    <t>25 May</t>
+  </si>
+  <si>
+    <t>Persoonlijk dossier</t>
+  </si>
+  <si>
+    <t>26 May</t>
+  </si>
+  <si>
+    <t>Maps filmpje</t>
   </si>
 </sst>
 </file>
@@ -950,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1176,154 +1284,316 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3">
+    <row r="17" spans="1:4">
+      <c r="A17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="10"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" s="10"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="10"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" s="10"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="10"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
     </row>
